--- a/Database/section-permissions.xlsx
+++ b/Database/section-permissions.xlsx
@@ -9,7 +9,6 @@
   </bookViews>
   <sheets>
     <sheet name="Permissions" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Reviews" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,60 +20,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">Section</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User_Group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Permission</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Personal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Students_Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hostel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hostels_Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Examination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exams_Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finance_Admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No Permit</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">S.No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users Permissions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Permission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hostel Permission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam Permission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Permission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overall Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hostel Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exam Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal Student</t>
   </si>
   <si>
     <t xml:space="preserve">Legends</t>
@@ -83,16 +67,16 @@
     <t xml:space="preserve">Meaning</t>
   </si>
   <si>
-    <t xml:space="preserve">Write Self, Read Others</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Write All</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Read All</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Read Self only</t>
+    <t xml:space="preserve">No Permission</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Only</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read + Write</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Write Only</t>
   </si>
 </sst>
 </file>
@@ -207,17 +191,24 @@
   <dimension ref="1:24"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="13.0918367346939"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="21.0612244897959"/>
-    <col collapsed="false" hidden="false" max="8" min="4" style="1" width="11.0714285714286"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="21.734693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="1" width="11.0714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="10.530612244898"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="12.6887755102041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="20.1122448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="18.8979591836735"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="18.765306122449"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="18.2244897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="16.3316326530612"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="19.1683673469388"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="1" width="16.8724489795918"/>
+    <col collapsed="false" hidden="false" max="1025" min="13" style="1" width="10.530612244898"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1256,208 +1247,310 @@
       <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="0"/>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="I2" s="0"/>
+      <c r="J2" s="0"/>
+      <c r="K2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0"/>
       <c r="C3" s="0"/>
       <c r="D3" s="0"/>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0"/>
+      <c r="G3" s="0"/>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
+      <c r="J3" s="0"/>
+      <c r="K3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0"/>
+      <c r="J4" s="0"/>
+      <c r="K4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0"/>
+      <c r="J5" s="0"/>
+      <c r="K5" s="0"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0"/>
+      <c r="J6" s="0"/>
+      <c r="K6" s="0"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H4" s="0"/>
-      <c r="I4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="I8" s="0"/>
+      <c r="J8" s="0"/>
+      <c r="K8" s="0"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="0"/>
-      <c r="I5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="0"/>
-      <c r="I6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="0"/>
+      <c r="J9" s="0"/>
+      <c r="K9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="0"/>
+      <c r="C10" s="0"/>
+      <c r="I10" s="0"/>
+      <c r="J10" s="0"/>
+      <c r="K10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B11" s="0"/>
+      <c r="C11" s="0"/>
+      <c r="I11" s="0"/>
+      <c r="J11" s="0"/>
+      <c r="K11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="B12" s="0"/>
+      <c r="C12" s="0"/>
+      <c r="I12" s="0"/>
+      <c r="J12" s="0"/>
+      <c r="K12" s="0"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="B13" s="0"/>
+      <c r="C13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="B14" s="0"/>
+      <c r="C14" s="0"/>
+      <c r="I14" s="0"/>
+      <c r="J14" s="0"/>
+      <c r="K14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="B15" s="0"/>
+      <c r="C15" s="0"/>
+      <c r="I15" s="0"/>
+      <c r="J15" s="0"/>
+      <c r="K15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0"/>
       <c r="C16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="0"/>
+      <c r="K16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="0"/>
+      <c r="K17" s="0"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="0"/>
+      <c r="K18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="I19" s="0"/>
+      <c r="J19" s="0"/>
+      <c r="K19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0"/>
       <c r="C20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="0"/>
+      <c r="K20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="s">
-        <v>7</v>
+      <c r="B21" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
+      <c r="K21" s="0"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>5</v>
+      <c r="B22" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
+      <c r="K22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>9</v>
+      <c r="B23" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
+      <c r="K23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="s">
-        <v>16</v>
+      <c r="B24" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1469,30 +1562,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="11.5204081632653"/>
-  </cols>
-  <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>